--- a/HW3 Test cases.xlsx
+++ b/HW3 Test cases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40FFE07-0B9E-744C-95CE-975CA66A7EB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Стр. товара на Яндекс.Маркет " sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,7 +31,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -45,7 +46,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{E5B47984-97BB-7D4A-BE18-9089A75E9D87}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+первые три буквы мои инициалы, продолжение нумерации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +83,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -71,7 +98,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{BE0AD688-DD87-B542-921A-8F629FAB3FC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+первые три буквы мои инициалы, продолжение нумерации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +135,33 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+первые три буквы мои инициалы, продолжение нумерации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{D17781EB-4891-EB4B-90A4-2FADAB65C3C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -102,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -620,13 +699,69 @@
       </rPr>
       <t>в поле2 введен запрос "до 104000", отображение предварительного списка товара с заданной стоимостью до…</t>
     </r>
+  </si>
+  <si>
+    <t>Модификации товара</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Редирект на страницу товара, модификация товара совпадает с запрошенной</t>
+    </r>
+  </si>
+  <si>
+    <t>Функционал - короткий тэг</t>
+  </si>
+  <si>
+    <t>ссылки в результатах лучше не указывать, если ссылка поменяется - тест по идее не пройдет</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test step: 2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выбираем модификацию товара</t>
+    </r>
+  </si>
+  <si>
+    <t>у тебя про ноутбук указано лишь в предусловиях, в тесте в шагах в таком случае лучше указывать в общем виде (кроме тест даты разумеется)</t>
+  </si>
+  <si>
+    <t>функционал аналогично</t>
+  </si>
+  <si>
+    <t>это не негативный тест-кейс, а скорее баг репорт, негативный тест-кейс должен проверять что даже при вводе каких-то неправильных данных у нас все остается ОК</t>
+  </si>
+  <si>
+    <t>Сравнение товаров</t>
+  </si>
+  <si>
+    <t>опять же это не тест-кейс а баг репорт, можно изменить дескрипшн (и шаги) чтобы проверялось именно сравнение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,6 +793,38 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -747,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -767,14 +934,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -788,22 +964,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -841,9 +1031,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,9 +1065,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,9 +1117,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1084,29 +1310,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1116,8 +1351,17 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="60">
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1127,83 +1371,154 @@
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="51.75" customHeight="1">
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="66.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="35.25" customHeight="1">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="75" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="E9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" ht="111.75" customHeight="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="14" t="s">
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1528,17 @@
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="105">
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1224,141 +1548,251 @@
       <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="108.75" customHeight="1">
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="78" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="E21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="50.25" customHeight="1">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="E24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" ht="57.75" customHeight="1">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="E25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="54.75" customHeight="1">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="E30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="31.5" customHeight="1">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="76.5" customHeight="1">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="E35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -1368,8 +1802,17 @@
       <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="45">
+      <c r="E41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
@@ -1379,73 +1822,129 @@
       <c r="C42" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="48" customHeight="1">
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="108" customHeight="1">
-      <c r="A44" s="6" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="7" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="E45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" ht="43.5" customHeight="1">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="6" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="E47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+  <mergeCells count="72">
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A19:C19"/>
@@ -1460,6 +1959,28 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
